--- a/app-mvp/modulos/data/datos_dias_estada.xlsx
+++ b/app-mvp/modulos/data/datos_dias_estada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rstudio\app_health_r_medicine\app-mvp\modulos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5CE5110D-B90A-4D7D-8A67-FCF5F1043AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D54184A-A5B3-4F0C-B2F0-9C00F852E53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
